--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Blocksize_test(Finished)/Blocksize_test(Last)/Compare.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Blocksize_test(Finished)/Blocksize_test(Last)/Compare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Blocksize_test(Last)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Blocksize_test(Finished)\Blocksize_test(Last)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ABB748-CE42-4345-A42F-70F1F62794F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B25E22-F030-4F30-BB24-C4F66523206F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latency" sheetId="1" r:id="rId1"/>
@@ -2959,12 +2959,12 @@
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="15.08203125" customWidth="1"/>
+    <col min="1" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0.50092000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0.72638999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1.5</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>0.78935</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>0.95362000000000013</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2.5</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>1.1204350000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1.27695</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.5</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>1.4238</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>1.573215</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4.5</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>1.6942400000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -3133,12 +3133,12 @@
       <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3161,234 +3161,234 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
       <c r="B2" s="1">
-        <v>0.11632000000000001</v>
+        <v>0.23264000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>0.16853499999999999</v>
+        <v>0.33706999999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>0.45232</v>
+        <v>0.90464</v>
       </c>
       <c r="E2" s="1">
-        <v>8794</v>
+        <v>4397</v>
       </c>
       <c r="F2" s="1">
-        <v>6069</v>
+        <v>3034</v>
       </c>
       <c r="G2" s="1">
-        <v>2261</v>
+        <v>1130</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.21955</v>
+        <v>0.43909999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>0.271395</v>
+        <v>0.54278999999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>0.58194000000000001</v>
+        <v>1.16388</v>
       </c>
       <c r="E3" s="1">
-        <v>9323</v>
+        <v>4661</v>
       </c>
       <c r="F3" s="1">
-        <v>7542</v>
+        <v>3771</v>
       </c>
       <c r="G3" s="1">
-        <v>3517</v>
+        <v>1758</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1.5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.31958500000000001</v>
+        <v>0.63917000000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>0.37139499999999998</v>
+        <v>0.74278999999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>0.70979499999999995</v>
+        <v>1.4195899999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>9609</v>
+        <v>4804</v>
       </c>
       <c r="F4" s="1">
-        <v>8268</v>
+        <v>4134</v>
       </c>
       <c r="G4" s="1">
-        <v>4326</v>
+        <v>2163</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.42341000000000006</v>
+        <v>0.84682000000000013</v>
       </c>
       <c r="C5" s="1">
-        <v>0.47388500000000006</v>
+        <v>0.94777000000000011</v>
       </c>
       <c r="D5" s="1">
-        <v>0.80220999999999998</v>
+        <v>1.60442</v>
       </c>
       <c r="E5" s="1">
-        <v>9671</v>
+        <v>4835</v>
       </c>
       <c r="F5" s="1">
-        <v>8641</v>
+        <v>4320</v>
       </c>
       <c r="G5" s="1">
-        <v>5104</v>
+        <v>2552</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2.5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.52573499999999995</v>
+        <v>1.0514699999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>0.57193499999999997</v>
+        <v>1.1438699999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>0.89138499999999998</v>
+        <v>1.78277</v>
       </c>
       <c r="E6" s="1">
-        <v>9736</v>
+        <v>4868</v>
       </c>
       <c r="F6" s="1">
-        <v>8950</v>
+        <v>4475</v>
       </c>
       <c r="G6" s="1">
-        <v>5742</v>
+        <v>2871</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>0.62829999999999997</v>
+        <v>1.2565999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>0.67567999999999995</v>
+        <v>1.3513599999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0516099999999999</v>
+        <v>2.1032199999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>9777</v>
+        <v>4888</v>
       </c>
       <c r="F7" s="1">
-        <v>9091</v>
+        <v>4545</v>
       </c>
       <c r="G7" s="1">
-        <v>5841</v>
+        <v>2920</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.5</v>
       </c>
       <c r="B8" s="1">
-        <v>0.73144500000000001</v>
+        <v>1.46289</v>
       </c>
       <c r="C8" s="1">
-        <v>0.78092499999999998</v>
+        <v>1.56185</v>
       </c>
       <c r="D8" s="1">
-        <v>1.15682</v>
+        <v>2.3136399999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>9798</v>
+        <v>4899</v>
       </c>
       <c r="F8" s="1">
-        <v>9177</v>
+        <v>4588</v>
       </c>
       <c r="G8" s="1">
-        <v>6195</v>
+        <v>3097</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.83307500000000001</v>
+        <v>1.66615</v>
       </c>
       <c r="C9" s="1">
-        <v>0.88166500000000003</v>
+        <v>1.7633300000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>1.2003550000000001</v>
+        <v>2.4007100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>9832</v>
+        <v>4916</v>
       </c>
       <c r="F9" s="1">
-        <v>9290</v>
+        <v>4645</v>
       </c>
       <c r="G9" s="1">
-        <v>6823</v>
+        <v>3411</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4.5</v>
       </c>
       <c r="B10" s="1">
-        <v>0.93384500000000015</v>
+        <v>1.8676900000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>0.98028999999999999</v>
+        <v>1.96058</v>
       </c>
       <c r="D10" s="1">
-        <v>1.3535699999999999</v>
+        <v>2.7071399999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>9867</v>
+        <v>4933</v>
       </c>
       <c r="F10" s="1">
-        <v>9400</v>
+        <v>4700</v>
       </c>
       <c r="G10" s="1">
-        <v>6807</v>
+        <v>3403</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0396099999999999</v>
+        <v>2.0792199999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1.08508</v>
+        <v>2.1701600000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>1.4887649999999999</v>
+        <v>2.9775299999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>9848</v>
+        <v>4924</v>
       </c>
       <c r="F11" s="1">
-        <v>9436</v>
+        <v>4718</v>
       </c>
       <c r="G11">
-        <v>6877</v>
+        <v>3438</v>
       </c>
     </row>
   </sheetData>
@@ -3405,14 +3405,14 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.08203125" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08203125" customWidth="1"/>
+    <col min="1" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1.5</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>3890</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>4294</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2.5</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>4810</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.5</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>5033</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>5206</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4.5</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5</v>
       </c>
